--- a/Test Case - 3/TC3_Results.xlsx
+++ b/Test Case - 3/TC3_Results.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="outfile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>35944b38-bb17-407d-9de2-3b397ba0a879</t>
   </si>
@@ -896,18 +896,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,7 +953,57 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1240,29 +1290,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P90" sqref="P90"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="U103" sqref="U103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1279,26 +1329,26 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1415,11 +1465,11 @@
         <v>30.152000000000001</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P67" si="0">0.9*((O4-D4)^0.51)*((SQRT((M4-B4)^2+(N4-C4)^2)^(-0.35)))</f>
+        <f t="shared" ref="P4:P65" si="0">0.9*((O4-D4)^0.51)*((SQRT((M4-B4)^2+(N4-C4)^2)^(-0.35)))</f>
         <v>2.0448743631265938</v>
       </c>
       <c r="Q4" t="b">
-        <f t="shared" ref="Q4:Q67" si="1">IF(J4=0,TRUE,OR(AND(J4&lt;(P4*1.03),J4&gt;(P4*0.97)),L4))</f>
+        <f t="shared" ref="Q4:Q65" si="1">IF(J4=0,TRUE,OR(AND(J4&lt;(P4*1.03),J4&gt;(P4*0.97)),L4))</f>
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +1970,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>5.0380000000000003</v>
@@ -1932,7 +1982,7 @@
         <v>15.151999999999999</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>17.5</v>
@@ -1950,10 +2000,10 @@
         <v>2.5897074235472801</v>
       </c>
       <c r="K14">
-        <v>3.1075427430000002</v>
+        <v>2.5987831880000001</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>7.5629999999999997</v>
@@ -1975,13 +2025,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>5.0380000000000003</v>
+        <v>5.0309999999999997</v>
       </c>
       <c r="C15">
-        <v>17.547000000000001</v>
+        <v>15.053000000000001</v>
       </c>
       <c r="D15">
         <v>15.151999999999999</v>
@@ -1990,19 +2040,19 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15">
-        <v>2.5897074235472801</v>
+        <v>2.5868769770219</v>
       </c>
       <c r="K15">
         <v>2.5987831880000001</v>
@@ -2011,17 +2061,17 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.5629999999999997</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="N15">
-        <v>17.571000000000002</v>
+        <v>15.044</v>
       </c>
       <c r="O15">
         <v>30.152000000000001</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>2.5897074235472859</v>
+        <v>2.5868769770219027</v>
       </c>
       <c r="Q15" t="b">
         <f t="shared" si="1"/>
@@ -2030,13 +2080,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>5.0309999999999997</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="C16">
-        <v>15.053000000000001</v>
+        <v>12.552</v>
       </c>
       <c r="D16">
         <v>15.151999999999999</v>
@@ -2045,19 +2095,19 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>2.5868769770219</v>
+        <v>2.6064344876720802</v>
       </c>
       <c r="K16">
         <v>2.5987831880000001</v>
@@ -2066,17 +2116,17 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.5640000000000001</v>
+        <v>7.5359999999999996</v>
       </c>
       <c r="N16">
-        <v>15.044</v>
+        <v>12.573</v>
       </c>
       <c r="O16">
         <v>30.152000000000001</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>2.5868769770219027</v>
+        <v>2.6064344876720802</v>
       </c>
       <c r="Q16" t="b">
         <f t="shared" si="1"/>
@@ -2085,19 +2135,19 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5.0570000000000004</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="C17">
-        <v>12.552</v>
+        <v>12.526999999999999</v>
       </c>
       <c r="D17">
         <v>15.151999999999999</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>12.5</v>
@@ -2106,16 +2156,16 @@
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17">
         <v>20</v>
       </c>
       <c r="J17">
-        <v>2.6064344876720802</v>
+        <v>3.1048616381874901</v>
       </c>
       <c r="K17">
-        <v>2.5987831880000001</v>
+        <v>3.1075427430000002</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2131,7 +2181,7 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>2.6064344876720802</v>
+        <v>3.1048616381874905</v>
       </c>
       <c r="Q17" t="b">
         <f t="shared" si="1"/>
@@ -2140,53 +2190,53 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>5.0570000000000004</v>
+        <v>9.0570000000000004</v>
       </c>
       <c r="C18">
-        <v>12.552</v>
+        <v>17.552</v>
       </c>
       <c r="D18">
-        <v>15.151999999999999</v>
+        <v>30.152000000000001</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
       <c r="I18">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J18">
-        <v>2.6064344876720802</v>
+        <v>2.0543527034183802</v>
       </c>
       <c r="K18">
-        <v>3.1075427430000002</v>
+        <v>2.0451125399999999</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>7.5359999999999996</v>
+        <v>10.044</v>
       </c>
       <c r="N18">
-        <v>12.573</v>
+        <v>17.532</v>
       </c>
       <c r="O18">
-        <v>30.152000000000001</v>
+        <v>35.152000000000001</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>2.6064344876720802</v>
+        <v>2.0543527034183851</v>
       </c>
       <c r="Q18" t="b">
         <f t="shared" si="1"/>
@@ -2195,53 +2245,53 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7.5629999999999997</v>
+      </c>
+      <c r="C19">
+        <v>17.571000000000002</v>
+      </c>
+      <c r="D19">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19">
+        <v>17.5</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>6.0330000000000004</v>
-      </c>
-      <c r="C19">
-        <v>12.526999999999999</v>
-      </c>
-      <c r="D19">
-        <v>15.151999999999999</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>12.5</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
       <c r="I19">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J19">
-        <v>3.1048616381874901</v>
+        <v>1.48791823541646</v>
       </c>
       <c r="K19">
-        <v>3.1075427430000002</v>
+        <v>1.48401472</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.5359999999999996</v>
+        <v>10.044</v>
       </c>
       <c r="N19">
-        <v>12.573</v>
+        <v>17.532</v>
       </c>
       <c r="O19">
-        <v>30.152000000000001</v>
+        <v>35.152000000000001</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>3.1048616381874905</v>
+        <v>1.4879182354164657</v>
       </c>
       <c r="Q19" t="b">
         <f t="shared" si="1"/>
@@ -2250,53 +2300,53 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>9.0570000000000004</v>
+        <v>7.5640000000000001</v>
       </c>
       <c r="C20">
-        <v>17.552</v>
+        <v>15.044</v>
       </c>
       <c r="D20">
         <v>30.152000000000001</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="F20">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20">
-        <v>2.0543527034183802</v>
+        <v>1.4846250104537499</v>
       </c>
       <c r="K20">
-        <v>2.0451125399999999</v>
+        <v>1.48401472</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.044</v>
+        <v>10.061</v>
       </c>
       <c r="N20">
-        <v>17.532</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="O20">
         <v>35.152000000000001</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>2.0543527034183851</v>
+        <v>1.4846250104537515</v>
       </c>
       <c r="Q20" t="b">
         <f t="shared" si="1"/>
@@ -2305,13 +2355,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>7.5629999999999997</v>
+        <v>7.5359999999999996</v>
       </c>
       <c r="C21">
-        <v>17.571000000000002</v>
+        <v>12.573</v>
       </c>
       <c r="D21">
         <v>30.152000000000001</v>
@@ -2320,19 +2370,19 @@
         <v>7.5</v>
       </c>
       <c r="F21">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="G21">
         <v>30</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
+      <c r="H21" t="s">
+        <v>18</v>
       </c>
       <c r="I21">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21">
-        <v>1.48791823541646</v>
+        <v>1.4729554370158799</v>
       </c>
       <c r="K21">
         <v>1.48401472</v>
@@ -2341,17 +2391,17 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.044</v>
+        <v>10.09</v>
       </c>
       <c r="N21">
-        <v>17.532</v>
+        <v>12.577999999999999</v>
       </c>
       <c r="O21">
         <v>35.152000000000001</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>1.4879182354164657</v>
+        <v>1.4729554370158839</v>
       </c>
       <c r="Q21" t="b">
         <f t="shared" si="1"/>
@@ -2360,53 +2410,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>7.5640000000000001</v>
+        <v>9.0380000000000003</v>
       </c>
       <c r="C22">
-        <v>15.044</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="D22">
         <v>30.152000000000001</v>
       </c>
       <c r="E22">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G22">
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I22">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22">
-        <v>1.4846250104537499</v>
+        <v>2.0088218024849001</v>
       </c>
       <c r="K22">
-        <v>1.48401472</v>
+        <v>2.0451125399999999</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.061</v>
+        <v>10.09</v>
       </c>
       <c r="N22">
-        <v>15.061999999999999</v>
+        <v>12.577999999999999</v>
       </c>
       <c r="O22">
         <v>35.152000000000001</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>1.4846250104537515</v>
+        <v>2.0088218024849072</v>
       </c>
       <c r="Q22" t="b">
         <f t="shared" si="1"/>
@@ -2415,53 +2465,53 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="C23">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="D23">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E23">
         <v>20</v>
       </c>
-      <c r="B23">
-        <v>7.5359999999999996</v>
-      </c>
-      <c r="C23">
-        <v>12.573</v>
-      </c>
-      <c r="D23">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="E23">
+      <c r="F23">
         <v>7.5</v>
       </c>
-      <c r="F23">
-        <v>12.5</v>
-      </c>
       <c r="G23">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J23">
-        <v>1.4729554370158799</v>
+        <v>3.6383790437784</v>
       </c>
       <c r="K23">
-        <v>1.48401472</v>
+        <v>3.6373616649999998</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.09</v>
+        <v>20.071999999999999</v>
       </c>
       <c r="N23">
-        <v>12.577999999999999</v>
+        <v>10.073</v>
       </c>
       <c r="O23">
         <v>35.152000000000001</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>1.4729554370158839</v>
+        <v>3.6383790437784005</v>
       </c>
       <c r="Q23" t="b">
         <f t="shared" si="1"/>
@@ -2470,53 +2520,44 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>25.027000000000001</v>
+      </c>
+      <c r="C24">
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="D24">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>9.0380000000000003</v>
-      </c>
-      <c r="C24">
-        <v>12.545999999999999</v>
-      </c>
-      <c r="D24">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>12.5</v>
-      </c>
-      <c r="G24">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
       <c r="I24">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J24">
-        <v>2.0088218024849001</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.0451125399999999</v>
+        <v>2.8538161209999999</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>10.09</v>
-      </c>
-      <c r="N24">
-        <v>12.577999999999999</v>
-      </c>
-      <c r="O24">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" si="0"/>
-        <v>2.0088218024849072</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q24" t="b">
         <f t="shared" si="1"/>
@@ -2525,13 +2566,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>20.068000000000001</v>
+        <v>20.042999999999999</v>
       </c>
       <c r="C25">
-        <v>7.5750000000000002</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="D25">
         <v>6.1520000000000001</v>
@@ -2540,22 +2581,22 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I25">
         <v>81</v>
       </c>
       <c r="J25">
-        <v>3.6383790437784</v>
+        <v>2.47658776100694</v>
       </c>
       <c r="K25">
-        <v>3.6373616649999998</v>
+        <v>2.4762474779999999</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -2571,7 +2612,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>3.6383790437784005</v>
+        <v>2.476587761006948</v>
       </c>
       <c r="Q25" t="b">
         <f t="shared" si="1"/>
@@ -2580,540 +2621,540 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>25.027000000000001</v>
+        <v>20.033999999999999</v>
       </c>
       <c r="C26">
-        <v>5.0460000000000003</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D26">
         <v>6.1520000000000001</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26">
+        <v>81</v>
+      </c>
+      <c r="J26">
+        <v>2.2369410617465202</v>
+      </c>
+      <c r="K26">
+        <v>2.239058746</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.071999999999999</v>
+      </c>
+      <c r="N26">
+        <v>10.073</v>
+      </c>
+      <c r="O26">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>2.2369410617465202</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>22.56</v>
+      </c>
+      <c r="C27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D27">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E27">
+        <v>22.5</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>2.2385854437966799</v>
+      </c>
+      <c r="K27">
+        <v>2.239058746</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>22.530999999999999</v>
+      </c>
+      <c r="N27">
+        <v>10.045</v>
+      </c>
+      <c r="O27">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>2.2385854437966821</v>
+      </c>
+      <c r="Q27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>25.052</v>
+      </c>
+      <c r="C28">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
         <v>79</v>
       </c>
-      <c r="J26">
+      <c r="J28">
+        <v>2.2370247560520098</v>
+      </c>
+      <c r="K28">
+        <v>2.239058746</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.053999999999998</v>
+      </c>
+      <c r="N28">
+        <v>10.071</v>
+      </c>
+      <c r="O28">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>2.2370247560520196</v>
+      </c>
+      <c r="Q28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27.561</v>
+      </c>
+      <c r="C29">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E29">
+        <v>27.5</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29">
+        <v>78</v>
+      </c>
+      <c r="J29">
+        <v>2.2390585544684298</v>
+      </c>
+      <c r="K29">
+        <v>2.239058746</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>27.568000000000001</v>
+      </c>
+      <c r="N29">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="O29">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>2.2390585544684343</v>
+      </c>
+      <c r="Q29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>30.03</v>
+      </c>
+      <c r="C30">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>36</v>
+      </c>
+      <c r="J30">
+        <v>2.0321327958306301</v>
+      </c>
+      <c r="K30">
+        <v>2.0330602199999999</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>40.042999999999999</v>
+      </c>
+      <c r="N30">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O30">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>2.0321327958306319</v>
+      </c>
+      <c r="Q30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30.05</v>
+      </c>
+      <c r="C31">
+        <v>2.528</v>
+      </c>
+      <c r="D31">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>77</v>
+      </c>
+      <c r="J31">
+        <v>2.4676198443580701</v>
+      </c>
+      <c r="K31">
+        <v>2.4762474779999999</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>30.1</v>
+      </c>
+      <c r="N31">
+        <v>10.103</v>
+      </c>
+      <c r="O31">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>2.4676198443580795</v>
+      </c>
+      <c r="Q31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="C32">
+        <v>5.0579999999999998</v>
+      </c>
+      <c r="D32">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>77</v>
+      </c>
+      <c r="J32">
+        <v>2.8448032004480899</v>
+      </c>
+      <c r="K32">
         <v>2.8538161209999999</v>
       </c>
-      <c r="L26" t="b">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.1</v>
+      </c>
+      <c r="N32">
+        <v>10.103</v>
+      </c>
+      <c r="O32">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>2.8448032004480983</v>
+      </c>
+      <c r="Q32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>30.06</v>
+      </c>
+      <c r="C33">
+        <v>7.5389999999999997</v>
+      </c>
+      <c r="D33">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>7.5</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>77</v>
+      </c>
+      <c r="J33">
+        <v>3.6051694822537899</v>
+      </c>
+      <c r="K33">
+        <v>3.6373616649999998</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>30.1</v>
+      </c>
+      <c r="N33">
+        <v>10.103</v>
+      </c>
+      <c r="O33">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>3.605169482253793</v>
+      </c>
+      <c r="Q33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>40.036999999999999</v>
+      </c>
+      <c r="C34">
+        <v>7.5579999999999998</v>
+      </c>
+      <c r="D34">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34">
+        <v>45</v>
+      </c>
+      <c r="J34">
+        <v>1.4869343895179601</v>
+      </c>
+      <c r="K34">
+        <v>1.042108434</v>
+      </c>
+      <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="P26" t="e">
+      <c r="M34">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="N34">
+        <v>10.044</v>
+      </c>
+      <c r="O34">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>1.486934389517961</v>
+      </c>
+      <c r="Q34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>45.018999999999998</v>
+      </c>
+      <c r="C35">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="D35">
+        <v>30.152000000000001</v>
+      </c>
+      <c r="E35">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35">
+        <v>46</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q26" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>20.042999999999999</v>
-      </c>
-      <c r="C27">
-        <v>2.5760000000000001</v>
-      </c>
-      <c r="D27">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <v>2.5</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27">
-        <v>81</v>
-      </c>
-      <c r="J27">
-        <v>2.47658776100694</v>
-      </c>
-      <c r="K27">
-        <v>2.4762474779999999</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>20.071999999999999</v>
-      </c>
-      <c r="N27">
-        <v>10.073</v>
-      </c>
-      <c r="O27">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>2.476587761006948</v>
-      </c>
-      <c r="Q27" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>20.033999999999999</v>
-      </c>
-      <c r="C28">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D28">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28">
-        <v>81</v>
-      </c>
-      <c r="J28">
-        <v>2.2369410617465202</v>
-      </c>
-      <c r="K28">
-        <v>2.239058746</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>20.071999999999999</v>
-      </c>
-      <c r="N28">
-        <v>10.073</v>
-      </c>
-      <c r="O28">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>2.2369410617465202</v>
-      </c>
-      <c r="Q28" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>22.56</v>
-      </c>
-      <c r="C29">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D29">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E29">
-        <v>22.5</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29">
-        <v>80</v>
-      </c>
-      <c r="J29">
-        <v>2.2385854437966799</v>
-      </c>
-      <c r="K29">
-        <v>2.239058746</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>22.530999999999999</v>
-      </c>
-      <c r="N29">
-        <v>10.045</v>
-      </c>
-      <c r="O29">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>2.2385854437966821</v>
-      </c>
-      <c r="Q29" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>25.052</v>
-      </c>
-      <c r="C30">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D30">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E30">
-        <v>25</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30">
-        <v>79</v>
-      </c>
-      <c r="J30">
-        <v>2.2370247560520098</v>
-      </c>
-      <c r="K30">
-        <v>2.239058746</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>25.053999999999998</v>
-      </c>
-      <c r="N30">
-        <v>10.071</v>
-      </c>
-      <c r="O30">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>2.2370247560520196</v>
-      </c>
-      <c r="Q30" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>27.561</v>
-      </c>
-      <c r="C31">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D31">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E31">
-        <v>27.5</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31">
-        <v>78</v>
-      </c>
-      <c r="J31">
-        <v>2.2390585544684298</v>
-      </c>
-      <c r="K31">
-        <v>2.239058746</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>27.568000000000001</v>
-      </c>
-      <c r="N31">
-        <v>10.055999999999999</v>
-      </c>
-      <c r="O31">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>2.2390585544684343</v>
-      </c>
-      <c r="Q31" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32">
-        <v>30.03</v>
-      </c>
-      <c r="C32">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D32">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32">
-        <v>36</v>
-      </c>
-      <c r="J32">
-        <v>2.0321327958306301</v>
-      </c>
-      <c r="K32">
-        <v>2.0330602199999999</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>40.042999999999999</v>
-      </c>
-      <c r="N32">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="O32">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>2.0321327958306319</v>
-      </c>
-      <c r="Q32" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <v>30.05</v>
-      </c>
-      <c r="C33">
-        <v>2.528</v>
-      </c>
-      <c r="D33">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <v>2.5</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33">
-        <v>77</v>
-      </c>
-      <c r="J33">
-        <v>2.4676198443580701</v>
-      </c>
-      <c r="K33">
-        <v>2.4762474779999999</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>30.1</v>
-      </c>
-      <c r="N33">
-        <v>10.103</v>
-      </c>
-      <c r="O33">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>2.4676198443580795</v>
-      </c>
-      <c r="Q33" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>30.036999999999999</v>
-      </c>
-      <c r="C34">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="D34">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34">
-        <v>77</v>
-      </c>
-      <c r="J34">
-        <v>2.8448032004480899</v>
-      </c>
-      <c r="K34">
-        <v>2.8538161209999999</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>30.1</v>
-      </c>
-      <c r="N34">
-        <v>10.103</v>
-      </c>
-      <c r="O34">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>2.8448032004480983</v>
-      </c>
-      <c r="Q34" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>30.06</v>
-      </c>
-      <c r="C35">
-        <v>7.5389999999999997</v>
-      </c>
-      <c r="D35">
-        <v>6.1520000000000001</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
-        <v>7.5</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35">
-        <v>77</v>
-      </c>
-      <c r="J35">
-        <v>3.6051694822537899</v>
-      </c>
-      <c r="K35">
-        <v>3.6373616649999998</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>30.1</v>
-      </c>
-      <c r="N35">
-        <v>10.103</v>
-      </c>
-      <c r="O35">
-        <v>35.152000000000001</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>3.605169482253793</v>
-      </c>
       <c r="Q35" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3121,13 +3162,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>40.036999999999999</v>
+        <v>40.042999999999999</v>
       </c>
       <c r="C36">
-        <v>7.5579999999999998</v>
+        <v>2.5339999999999998</v>
       </c>
       <c r="D36">
         <v>30.152000000000001</v>
@@ -3136,25 +3177,25 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G36">
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I36">
         <v>45</v>
       </c>
       <c r="J36">
-        <v>1.4869343895179601</v>
+        <v>1.0098181393826899</v>
       </c>
       <c r="K36">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>40.036000000000001</v>
@@ -3167,7 +3208,7 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>1.486934389517961</v>
+        <v>1.0098181393826899</v>
       </c>
       <c r="Q36" t="b">
         <f t="shared" si="1"/>
@@ -3176,44 +3217,53 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>45.018999999999998</v>
+        <v>40.042999999999999</v>
       </c>
       <c r="C37">
-        <v>3.0369999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D37">
         <v>30.152000000000001</v>
       </c>
       <c r="E37">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I37">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" t="e">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>40.036000000000001</v>
+      </c>
+      <c r="N37">
+        <v>10.044</v>
+      </c>
+      <c r="O37">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>0.91319862176930955</v>
       </c>
       <c r="Q37" t="b">
         <f t="shared" si="1"/>
@@ -3222,34 +3272,34 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>40.042999999999999</v>
+        <v>42.554000000000002</v>
       </c>
       <c r="C38">
-        <v>2.5339999999999998</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D38">
         <v>30.152000000000001</v>
       </c>
       <c r="E38">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="F38">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I38">
         <v>45</v>
       </c>
       <c r="J38">
-        <v>1.0098181393826899</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3258,17 +3308,17 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>40.036000000000001</v>
+        <v>42.567</v>
       </c>
       <c r="N38">
-        <v>10.044</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="O38">
         <v>35.152000000000001</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>1.0098181393826899</v>
+        <v>0.91310265987068129</v>
       </c>
       <c r="Q38" t="b">
         <f t="shared" si="1"/>
@@ -3277,19 +3327,19 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>40.042999999999999</v>
+        <v>45.036000000000001</v>
       </c>
       <c r="C39">
-        <v>3.4000000000000002E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D39">
         <v>30.152000000000001</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3298,10 +3348,10 @@
         <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I39">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3313,17 +3363,17 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>40.036000000000001</v>
+        <v>45.067</v>
       </c>
       <c r="N39">
-        <v>10.044</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="O39">
         <v>35.152000000000001</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>0.91319862176930955</v>
+        <v>0.91243209311176077</v>
       </c>
       <c r="Q39" t="b">
         <f t="shared" si="1"/>
@@ -3332,19 +3382,19 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>42.554000000000002</v>
+        <v>47.545000000000002</v>
       </c>
       <c r="C40">
-        <v>6.2E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D40">
         <v>30.152000000000001</v>
       </c>
       <c r="E40">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3353,10 +3403,10 @@
         <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I40">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3368,17 +3418,17 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>42.567</v>
+        <v>47.531999999999996</v>
       </c>
       <c r="N40">
-        <v>10.074999999999999</v>
+        <v>10.028</v>
       </c>
       <c r="O40">
         <v>35.152000000000001</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>0.91310265987068129</v>
+        <v>0.9142544699120414</v>
       </c>
       <c r="Q40" t="b">
         <f t="shared" si="1"/>
@@ -3387,19 +3437,19 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>45.036000000000001</v>
+        <v>50.027999999999999</v>
       </c>
       <c r="C41">
-        <v>4.1000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D41">
         <v>30.152000000000001</v>
       </c>
       <c r="E41">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3408,10 +3458,10 @@
         <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I41">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -3423,17 +3473,17 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>45.067</v>
+        <v>50.079000000000001</v>
       </c>
       <c r="N41">
-        <v>10.074999999999999</v>
+        <v>10.063000000000001</v>
       </c>
       <c r="O41">
         <v>35.152000000000001</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>0.91243209311176077</v>
+        <v>0.91300305479816812</v>
       </c>
       <c r="Q41" t="b">
         <f t="shared" si="1"/>
@@ -3442,34 +3492,34 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>47.545000000000002</v>
+        <v>50.048999999999999</v>
       </c>
       <c r="C42">
-        <v>5.0999999999999997E-2</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="D42">
         <v>30.152000000000001</v>
       </c>
       <c r="E42">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G42">
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I42">
         <v>47</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>1.01033365880203</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3478,17 +3528,17 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>47.531999999999996</v>
+        <v>50.079000000000001</v>
       </c>
       <c r="N42">
-        <v>10.028</v>
+        <v>10.063000000000001</v>
       </c>
       <c r="O42">
         <v>35.152000000000001</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>0.9142544699120414</v>
+        <v>1.0103336588020304</v>
       </c>
       <c r="Q42" t="b">
         <f t="shared" si="1"/>
@@ -3497,13 +3547,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>50.027999999999999</v>
+        <v>50.048999999999999</v>
       </c>
       <c r="C43">
-        <v>4.7E-2</v>
+        <v>5.0640000000000001</v>
       </c>
       <c r="D43">
         <v>30.152000000000001</v>
@@ -3512,25 +3562,25 @@
         <v>50</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <v>47</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>1.16440852580988</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>50.079000000000001</v>
@@ -3543,7 +3593,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>0.91300305479816812</v>
+        <v>1.1644085258098895</v>
       </c>
       <c r="Q43" t="b">
         <f t="shared" si="1"/>
@@ -3552,13 +3602,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>50.048999999999999</v>
+        <v>50.070999999999998</v>
       </c>
       <c r="C44">
-        <v>2.5640000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="D44">
         <v>30.152000000000001</v>
@@ -3567,25 +3617,25 @@
         <v>50</v>
       </c>
       <c r="F44">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="G44">
         <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I44">
         <v>47</v>
       </c>
       <c r="J44">
-        <v>1.01033365880203</v>
+        <v>1.48966281004053</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>50.079000000000001</v>
@@ -3598,7 +3648,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>1.0103336588020304</v>
+        <v>1.4896628100405325</v>
       </c>
       <c r="Q44" t="b">
         <f t="shared" si="1"/>
@@ -3607,53 +3657,53 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>42.548999999999999</v>
+      </c>
+      <c r="C45">
+        <v>9.0640000000000001</v>
+      </c>
+      <c r="D45">
+        <v>32.652000000000001</v>
+      </c>
+      <c r="E45">
+        <v>42.5</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>32.5</v>
+      </c>
+      <c r="H45" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
-        <v>50.048999999999999</v>
-      </c>
-      <c r="C45">
-        <v>5.0640000000000001</v>
-      </c>
-      <c r="D45">
-        <v>30.152000000000001</v>
-      </c>
-      <c r="E45">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
-        <v>40</v>
-      </c>
       <c r="I45">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J45">
-        <v>1.16440852580988</v>
+        <v>1.43055619254908</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>1.4361239130000001</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>50.079000000000001</v>
+        <v>42.567</v>
       </c>
       <c r="N45">
-        <v>10.063000000000001</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="O45">
         <v>35.152000000000001</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>1.1644085258098895</v>
+        <v>1.430556192549082</v>
       </c>
       <c r="Q45" t="b">
         <f t="shared" si="1"/>
@@ -3662,53 +3712,53 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>50.070999999999998</v>
+        <v>42.56</v>
       </c>
       <c r="C46">
-        <v>7.59</v>
+        <v>7.577</v>
       </c>
       <c r="D46">
-        <v>30.152000000000001</v>
+        <v>32.652000000000001</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>42.5</v>
       </c>
       <c r="F46">
         <v>7.5</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I46">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J46">
-        <v>1.48966281004053</v>
+        <v>1.0423989497625801</v>
       </c>
       <c r="K46">
         <v>1.042108434</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>50.079000000000001</v>
+        <v>42.567</v>
       </c>
       <c r="N46">
-        <v>10.063000000000001</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="O46">
         <v>35.152000000000001</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>1.4896628100405325</v>
+        <v>1.0423989497625858</v>
       </c>
       <c r="Q46" t="b">
         <f t="shared" si="1"/>
@@ -3717,43 +3767,43 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>42.548999999999999</v>
+        <v>45.058</v>
       </c>
       <c r="C47">
-        <v>9.0640000000000001</v>
+        <v>7.556</v>
       </c>
       <c r="D47">
         <v>32.652000000000001</v>
       </c>
       <c r="E47">
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G47">
         <v>32.5</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I47">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47">
-        <v>1.43055619254908</v>
+        <v>1.0393482402341101</v>
       </c>
       <c r="K47">
-        <v>1.4361239130000001</v>
+        <v>1.042108434</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>42.567</v>
+        <v>45.067</v>
       </c>
       <c r="N47">
         <v>10.074999999999999</v>
@@ -3763,7 +3813,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>1.430556192549082</v>
+        <v>1.0393482402341114</v>
       </c>
       <c r="Q47" t="b">
         <f t="shared" si="1"/>
@@ -3772,10 +3822,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>42.56</v>
+        <v>47.56</v>
       </c>
       <c r="C48">
         <v>7.577</v>
@@ -3784,7 +3834,7 @@
         <v>32.652000000000001</v>
       </c>
       <c r="E48">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="F48">
         <v>7.5</v>
@@ -3793,13 +3843,13 @@
         <v>32.5</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J48">
-        <v>1.0423989497625801</v>
+        <v>1.0493293900663401</v>
       </c>
       <c r="K48">
         <v>1.042108434</v>
@@ -3808,17 +3858,17 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>42.567</v>
+        <v>47.531999999999996</v>
       </c>
       <c r="N48">
-        <v>10.074999999999999</v>
+        <v>10.028</v>
       </c>
       <c r="O48">
         <v>35.152000000000001</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>1.0423989497625858</v>
+        <v>1.0493293900663492</v>
       </c>
       <c r="Q48" t="b">
         <f t="shared" si="1"/>
@@ -3827,53 +3877,53 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>45.058</v>
+        <v>47.529000000000003</v>
       </c>
       <c r="C49">
-        <v>7.556</v>
+        <v>9.0589999999999993</v>
       </c>
       <c r="D49">
         <v>32.652000000000001</v>
       </c>
       <c r="E49">
-        <v>45</v>
+        <v>47.5</v>
       </c>
       <c r="F49">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <v>32.5</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I49">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>1.0393482402341101</v>
+        <v>1.4520376033657001</v>
       </c>
       <c r="K49">
-        <v>1.042108434</v>
+        <v>1.4361239130000001</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
       </c>
       <c r="M49">
-        <v>45.067</v>
+        <v>47.531999999999996</v>
       </c>
       <c r="N49">
-        <v>10.074999999999999</v>
+        <v>10.028</v>
       </c>
       <c r="O49">
         <v>35.152000000000001</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>1.0393482402341114</v>
+        <v>1.452037603365705</v>
       </c>
       <c r="Q49" t="b">
         <f t="shared" si="1"/>
@@ -3882,53 +3932,53 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>10.038</v>
+      </c>
+      <c r="C50">
+        <v>20.050999999999998</v>
+      </c>
+      <c r="D50">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
-        <v>47.56</v>
-      </c>
-      <c r="C50">
-        <v>7.577</v>
-      </c>
-      <c r="D50">
-        <v>32.652000000000001</v>
-      </c>
-      <c r="E50">
-        <v>47.5</v>
-      </c>
-      <c r="F50">
-        <v>7.5</v>
-      </c>
-      <c r="G50">
-        <v>32.5</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
       <c r="I50">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J50">
-        <v>1.0493293900663401</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
       </c>
       <c r="M50">
-        <v>47.531999999999996</v>
+        <v>12.54</v>
       </c>
       <c r="N50">
-        <v>10.028</v>
+        <v>17.545999999999999</v>
       </c>
       <c r="O50">
-        <v>35.152000000000001</v>
+        <v>37.652000000000001</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>1.0493293900663492</v>
+        <v>0.9226138691429091</v>
       </c>
       <c r="Q50" t="b">
         <f t="shared" si="1"/>
@@ -3937,53 +3987,53 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>12.548999999999999</v>
+      </c>
+      <c r="C51">
+        <v>20.064</v>
+      </c>
+      <c r="D51">
+        <v>35.152000000000001</v>
+      </c>
+      <c r="E51">
+        <v>12.5</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
-        <v>47.529000000000003</v>
-      </c>
-      <c r="C51">
-        <v>9.0589999999999993</v>
-      </c>
-      <c r="D51">
-        <v>32.652000000000001</v>
-      </c>
-      <c r="E51">
-        <v>47.5</v>
-      </c>
-      <c r="F51">
-        <v>9</v>
-      </c>
-      <c r="G51">
-        <v>32.5</v>
-      </c>
-      <c r="H51" t="s">
-        <v>46</v>
-      </c>
       <c r="I51">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J51">
-        <v>1.4520376033657001</v>
+        <v>1.0394926883266</v>
       </c>
       <c r="K51">
-        <v>1.4361239130000001</v>
+        <v>1.042108434</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
       </c>
       <c r="M51">
-        <v>47.531999999999996</v>
+        <v>12.54</v>
       </c>
       <c r="N51">
-        <v>10.028</v>
+        <v>17.545999999999999</v>
       </c>
       <c r="O51">
-        <v>35.152000000000001</v>
+        <v>37.652000000000001</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>1.452037603365705</v>
+        <v>1.0394926883266076</v>
       </c>
       <c r="Q51" t="b">
         <f t="shared" si="1"/>
@@ -3992,10 +4042,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>10.038</v>
+        <v>15.038</v>
       </c>
       <c r="C52">
         <v>20.050999999999998</v>
@@ -4004,7 +4054,7 @@
         <v>35.152000000000001</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>20</v>
@@ -4013,32 +4063,32 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I52">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>1.0444385554931499</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>12.54</v>
+        <v>15.06</v>
       </c>
       <c r="N52">
-        <v>17.545999999999999</v>
+        <v>17.567</v>
       </c>
       <c r="O52">
         <v>37.652000000000001</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>0.9226138691429091</v>
+        <v>1.0444385554931526</v>
       </c>
       <c r="Q52" t="b">
         <f t="shared" si="1"/>
@@ -4047,19 +4097,19 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>12.548999999999999</v>
+        <v>15.047000000000001</v>
       </c>
       <c r="C53">
-        <v>20.064</v>
+        <v>20.044</v>
       </c>
       <c r="D53">
         <v>35.152000000000001</v>
       </c>
       <c r="E53">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F53">
         <v>20</v>
@@ -4068,13 +4118,13 @@
         <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I53">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J53">
-        <v>1.0394926883266</v>
+        <v>1.0454799734459299</v>
       </c>
       <c r="K53">
         <v>1.042108434</v>
@@ -4083,17 +4133,17 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>12.54</v>
+        <v>15.06</v>
       </c>
       <c r="N53">
-        <v>17.545999999999999</v>
+        <v>17.567</v>
       </c>
       <c r="O53">
         <v>37.652000000000001</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>1.0394926883266076</v>
+        <v>1.0454799734459299</v>
       </c>
       <c r="Q53" t="b">
         <f t="shared" si="1"/>
@@ -4102,19 +4152,19 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>15.038</v>
+        <v>17.516999999999999</v>
       </c>
       <c r="C54">
-        <v>20.050999999999998</v>
+        <v>20.045999999999999</v>
       </c>
       <c r="D54">
         <v>35.152000000000001</v>
       </c>
       <c r="E54">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4123,13 +4173,13 @@
         <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I54">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J54">
-        <v>1.0444385554931499</v>
+        <v>1.04094089146198</v>
       </c>
       <c r="K54">
         <v>1.042108434</v>
@@ -4138,17 +4188,17 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>15.06</v>
+        <v>17.507000000000001</v>
       </c>
       <c r="N54">
-        <v>17.567</v>
+        <v>17.538</v>
       </c>
       <c r="O54">
         <v>37.652000000000001</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>1.0444385554931526</v>
+        <v>1.0409408914619884</v>
       </c>
       <c r="Q54" t="b">
         <f t="shared" si="1"/>
@@ -4157,19 +4207,19 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>15.047000000000001</v>
+        <v>20.038</v>
       </c>
       <c r="C55">
-        <v>20.044</v>
+        <v>20.050999999999998</v>
       </c>
       <c r="D55">
         <v>35.152000000000001</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -4178,13 +4228,13 @@
         <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I55">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J55">
-        <v>1.0454799734459299</v>
+        <v>1.0493239803768399</v>
       </c>
       <c r="K55">
         <v>1.042108434</v>
@@ -4193,17 +4243,17 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>15.06</v>
+        <v>20.068999999999999</v>
       </c>
       <c r="N55">
-        <v>17.567</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O55">
         <v>37.652000000000001</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>1.0454799734459299</v>
+        <v>1.0493239803768479</v>
       </c>
       <c r="Q55" t="b">
         <f t="shared" si="1"/>
@@ -4212,19 +4262,19 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>17.516999999999999</v>
+        <v>22.538</v>
       </c>
       <c r="C56">
-        <v>20.045999999999999</v>
+        <v>20.050999999999998</v>
       </c>
       <c r="D56">
         <v>35.152000000000001</v>
       </c>
       <c r="E56">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="F56">
         <v>20</v>
@@ -4233,13 +4283,13 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I56">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J56">
-        <v>1.04094089146198</v>
+        <v>1.0422539014749601</v>
       </c>
       <c r="K56">
         <v>1.042108434</v>
@@ -4248,17 +4298,17 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>17.507000000000001</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="N56">
-        <v>17.538</v>
+        <v>17.552</v>
       </c>
       <c r="O56">
         <v>37.652000000000001</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>1.0409408914619884</v>
+        <v>1.0422539014749614</v>
       </c>
       <c r="Q56" t="b">
         <f t="shared" si="1"/>
@@ -4267,10 +4317,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>20.038</v>
+        <v>25.038</v>
       </c>
       <c r="C57">
         <v>20.050999999999998</v>
@@ -4279,7 +4329,7 @@
         <v>35.152000000000001</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F57">
         <v>20</v>
@@ -4288,32 +4338,32 @@
         <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I57">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J57">
-        <v>1.0493239803768399</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>20.068999999999999</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="N57">
-        <v>17.600000000000001</v>
+        <v>17.552</v>
       </c>
       <c r="O57">
         <v>37.652000000000001</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>1.0493239803768479</v>
+        <v>0.92287187573339424</v>
       </c>
       <c r="Q57" t="b">
         <f t="shared" si="1"/>
@@ -4322,10 +4372,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>22.538</v>
+        <v>27.538</v>
       </c>
       <c r="C58">
         <v>20.050999999999998</v>
@@ -4334,7 +4384,7 @@
         <v>35.152000000000001</v>
       </c>
       <c r="E58">
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -4343,16 +4393,16 @@
         <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I58">
         <v>93</v>
       </c>
       <c r="J58">
-        <v>1.0422539014749601</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -4368,7 +4418,7 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>1.0422539014749614</v>
+        <v>0.78615475340475571</v>
       </c>
       <c r="Q58" t="b">
         <f t="shared" si="1"/>
@@ -4377,19 +4427,19 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>25.038</v>
+        <v>30.103000000000002</v>
       </c>
       <c r="C59">
-        <v>20.050999999999998</v>
+        <v>20.108000000000001</v>
       </c>
       <c r="D59">
         <v>35.152000000000001</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F59">
         <v>20</v>
@@ -4398,10 +4448,10 @@
         <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I59">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4413,17 +4463,17 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>22.533999999999999</v>
+        <v>32.540999999999997</v>
       </c>
       <c r="N59">
-        <v>17.552</v>
+        <v>17.524000000000001</v>
       </c>
       <c r="O59">
         <v>37.652000000000001</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>0.92287187573339424</v>
+        <v>0.92151223735271159</v>
       </c>
       <c r="Q59" t="b">
         <f t="shared" si="1"/>
@@ -4432,19 +4482,19 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>27.538</v>
+        <v>32.54</v>
       </c>
       <c r="C60">
-        <v>20.050999999999998</v>
+        <v>20.071999999999999</v>
       </c>
       <c r="D60">
         <v>35.152000000000001</v>
       </c>
       <c r="E60">
-        <v>27.5</v>
+        <v>32.5</v>
       </c>
       <c r="F60">
         <v>20</v>
@@ -4453,32 +4503,32 @@
         <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I60">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>1.0351948526671599</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>22.533999999999999</v>
+        <v>32.540999999999997</v>
       </c>
       <c r="N60">
-        <v>17.552</v>
+        <v>17.524000000000001</v>
       </c>
       <c r="O60">
         <v>37.652000000000001</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>0.78615475340475571</v>
+        <v>1.0351948526671679</v>
       </c>
       <c r="Q60" t="b">
         <f t="shared" si="1"/>
@@ -4487,19 +4537,19 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>30.103000000000002</v>
+        <v>35.067</v>
       </c>
       <c r="C61">
-        <v>20.108000000000001</v>
+        <v>20.048999999999999</v>
       </c>
       <c r="D61">
         <v>35.152000000000001</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F61">
         <v>20</v>
@@ -4508,32 +4558,32 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I61">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>1.04239684495069</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>32.540999999999997</v>
+        <v>35.055999999999997</v>
       </c>
       <c r="N61">
-        <v>17.524000000000001</v>
+        <v>17.550999999999998</v>
       </c>
       <c r="O61">
         <v>37.652000000000001</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>0.92151223735271159</v>
+        <v>1.042396844950698</v>
       </c>
       <c r="Q61" t="b">
         <f t="shared" si="1"/>
@@ -4542,19 +4592,19 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>32.54</v>
+        <v>37.543999999999997</v>
       </c>
       <c r="C62">
-        <v>20.071999999999999</v>
+        <v>20.024999999999999</v>
       </c>
       <c r="D62">
         <v>35.152000000000001</v>
       </c>
       <c r="E62">
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="F62">
         <v>20</v>
@@ -4563,13 +4613,13 @@
         <v>35</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I62">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J62">
-        <v>1.0351948526671599</v>
+        <v>1.0413694576064001</v>
       </c>
       <c r="K62">
         <v>1.042108434</v>
@@ -4578,17 +4628,17 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>32.540999999999997</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="N62">
-        <v>17.524000000000001</v>
+        <v>17.52</v>
       </c>
       <c r="O62">
         <v>37.652000000000001</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>1.0351948526671679</v>
+        <v>1.0413694576064096</v>
       </c>
       <c r="Q62" t="b">
         <f t="shared" si="1"/>
@@ -4597,19 +4647,19 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63">
-        <v>35.067</v>
+        <v>37.545000000000002</v>
       </c>
       <c r="C63">
-        <v>20.048999999999999</v>
+        <v>20.077000000000002</v>
       </c>
       <c r="D63">
         <v>35.152000000000001</v>
       </c>
       <c r="E63">
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="F63">
         <v>20</v>
@@ -4618,13 +4668,13 @@
         <v>35</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I63">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J63">
-        <v>1.04239684495069</v>
+        <v>1.0339070805606301</v>
       </c>
       <c r="K63">
         <v>1.042108434</v>
@@ -4633,17 +4683,17 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>35.055999999999997</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="N63">
-        <v>17.550999999999998</v>
+        <v>17.52</v>
       </c>
       <c r="O63">
         <v>37.652000000000001</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>1.042396844950698</v>
+        <v>1.0339070805606345</v>
       </c>
       <c r="Q63" t="b">
         <f t="shared" si="1"/>
@@ -4652,19 +4702,19 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>37.543999999999997</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="C64">
-        <v>20.024999999999999</v>
+        <v>20.04</v>
       </c>
       <c r="D64">
         <v>35.152000000000001</v>
       </c>
       <c r="E64">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <v>20</v>
@@ -4673,13 +4723,13 @@
         <v>35</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I64">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J64">
-        <v>1.0413694576064001</v>
+        <v>1.0420887104180101</v>
       </c>
       <c r="K64">
         <v>1.042108434</v>
@@ -4688,17 +4738,17 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>37.524999999999999</v>
+        <v>40.045999999999999</v>
       </c>
       <c r="N64">
-        <v>17.52</v>
+        <v>17.54</v>
       </c>
       <c r="O64">
         <v>37.652000000000001</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>1.0413694576064096</v>
+        <v>1.0420887104180172</v>
       </c>
       <c r="Q64" t="b">
         <f t="shared" si="1"/>
@@ -4707,19 +4757,19 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65">
-        <v>37.545000000000002</v>
+        <v>42.521999999999998</v>
       </c>
       <c r="C65">
-        <v>20.077000000000002</v>
+        <v>20.016999999999999</v>
       </c>
       <c r="D65">
         <v>35.152000000000001</v>
       </c>
       <c r="E65">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="F65">
         <v>20</v>
@@ -4728,13 +4778,13 @@
         <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I65">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J65">
-        <v>1.0339070805606301</v>
+        <v>1.05256144114443</v>
       </c>
       <c r="K65">
         <v>1.042108434</v>
@@ -4743,17 +4793,17 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>37.524999999999999</v>
+        <v>42.581000000000003</v>
       </c>
       <c r="N65">
-        <v>17.52</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="O65">
         <v>37.652000000000001</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>1.0339070805606345</v>
+        <v>1.0525614411444366</v>
       </c>
       <c r="Q65" t="b">
         <f t="shared" si="1"/>
@@ -4762,19 +4812,19 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>40.020000000000003</v>
+        <v>45.021999999999998</v>
       </c>
       <c r="C66">
-        <v>20.04</v>
+        <v>20.016999999999999</v>
       </c>
       <c r="D66">
         <v>35.152000000000001</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F66">
         <v>20</v>
@@ -4783,53 +4833,53 @@
         <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I66">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J66">
-        <v>1.0420887104180101</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>40.045999999999999</v>
+        <v>42.581000000000003</v>
       </c>
       <c r="N66">
-        <v>17.54</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="O66">
         <v>37.652000000000001</v>
       </c>
       <c r="P66">
-        <f t="shared" si="0"/>
-        <v>1.0420887104180172</v>
+        <f t="shared" ref="P66:P118" si="2">0.9*((O66-D66)^0.51)*((SQRT((M66-B66)^2+(N66-C66)^2)^(-0.35)))</f>
+        <v>0.93161519885622435</v>
       </c>
       <c r="Q66" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q66:Q118" si="3">IF(J66=0,TRUE,OR(AND(J66&lt;(P66*1.03),J66&gt;(P66*0.97)),L66))</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>42.521999999999998</v>
+        <v>47.524000000000001</v>
       </c>
       <c r="C67">
-        <v>20.016999999999999</v>
+        <v>20.056000000000001</v>
       </c>
       <c r="D67">
         <v>35.152000000000001</v>
       </c>
       <c r="E67">
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="F67">
         <v>20</v>
@@ -4838,16 +4888,16 @@
         <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I67">
         <v>105</v>
       </c>
       <c r="J67">
-        <v>1.05256144114443</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L67" t="b">
         <v>1</v>
@@ -4862,29 +4912,29 @@
         <v>37.652000000000001</v>
       </c>
       <c r="P67">
-        <f t="shared" si="0"/>
-        <v>1.0525614411444366</v>
+        <f t="shared" si="2"/>
+        <v>0.78954880629039881</v>
       </c>
       <c r="Q67" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>45.021999999999998</v>
+        <v>50.052999999999997</v>
       </c>
       <c r="C68">
-        <v>20.016999999999999</v>
+        <v>20.047999999999998</v>
       </c>
       <c r="D68">
         <v>35.152000000000001</v>
       </c>
       <c r="E68">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F68">
         <v>20</v>
@@ -4893,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I68">
         <v>105</v>
@@ -4917,38 +4967,38 @@
         <v>37.652000000000001</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P120" si="2">0.9*((O68-D68)^0.51)*((SQRT((M68-B68)^2+(N68-C68)^2)^(-0.35)))</f>
-        <v>0.93161519885622435</v>
+        <f t="shared" si="2"/>
+        <v>0.69769832844188373</v>
       </c>
       <c r="Q68" t="b">
-        <f t="shared" ref="Q68:Q120" si="3">IF(J68=0,TRUE,OR(AND(J68&lt;(P68*1.03),J68&gt;(P68*0.97)),L68))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>47.524000000000001</v>
+        <v>50.048000000000002</v>
       </c>
       <c r="C69">
-        <v>20.056000000000001</v>
+        <v>17.532</v>
       </c>
       <c r="D69">
         <v>35.152000000000001</v>
       </c>
       <c r="E69">
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="G69">
         <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I69">
         <v>105</v>
@@ -4973,7 +5023,7 @@
       </c>
       <c r="P69">
         <f t="shared" si="2"/>
-        <v>0.78954880629039881</v>
+        <v>0.71053665367224539</v>
       </c>
       <c r="Q69" t="b">
         <f t="shared" si="3"/>
@@ -4982,13 +5032,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>50.052999999999997</v>
+        <v>50.031999999999996</v>
       </c>
       <c r="C70">
-        <v>20.047999999999998</v>
+        <v>17.527999999999999</v>
       </c>
       <c r="D70">
         <v>35.152000000000001</v>
@@ -4997,13 +5047,13 @@
         <v>50</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="G70">
         <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I70">
         <v>105</v>
@@ -5028,7 +5078,7 @@
       </c>
       <c r="P70">
         <f t="shared" si="2"/>
-        <v>0.69769832844188373</v>
+        <v>0.71106923436587388</v>
       </c>
       <c r="Q70" t="b">
         <f t="shared" si="3"/>
@@ -5037,13 +5087,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71">
-        <v>50.048000000000002</v>
+        <v>50.031999999999996</v>
       </c>
       <c r="C71">
-        <v>17.532</v>
+        <v>15.028</v>
       </c>
       <c r="D71">
         <v>35.152000000000001</v>
@@ -5052,16 +5102,16 @@
         <v>50</v>
       </c>
       <c r="F71">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G71">
         <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I71">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5073,17 +5123,17 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>42.581000000000003</v>
+        <v>42.578000000000003</v>
       </c>
       <c r="N71">
-        <v>17.588000000000001</v>
+        <v>15.048999999999999</v>
       </c>
       <c r="O71">
         <v>37.652000000000001</v>
       </c>
       <c r="P71">
         <f t="shared" si="2"/>
-        <v>0.71053665367224539</v>
+        <v>0.7109761374106538</v>
       </c>
       <c r="Q71" t="b">
         <f t="shared" si="3"/>
@@ -5092,13 +5142,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>50.031999999999996</v>
       </c>
       <c r="C72">
-        <v>17.527999999999999</v>
+        <v>12.528</v>
       </c>
       <c r="D72">
         <v>35.152000000000001</v>
@@ -5107,16 +5157,16 @@
         <v>50</v>
       </c>
       <c r="F72">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="G72">
         <v>35</v>
       </c>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I72">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5128,17 +5178,17 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>42.581000000000003</v>
+        <v>42.540999999999997</v>
       </c>
       <c r="N72">
-        <v>17.588000000000001</v>
+        <v>12.523999999999999</v>
       </c>
       <c r="O72">
         <v>37.652000000000001</v>
       </c>
       <c r="P72">
         <f t="shared" si="2"/>
-        <v>0.71106923436587388</v>
+        <v>0.70974601571712348</v>
       </c>
       <c r="Q72" t="b">
         <f t="shared" si="3"/>
@@ -5147,13 +5197,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B73">
-        <v>50.031999999999996</v>
+        <v>50.079000000000001</v>
       </c>
       <c r="C73">
-        <v>15.028</v>
+        <v>10.063000000000001</v>
       </c>
       <c r="D73">
         <v>35.152000000000001</v>
@@ -5162,16 +5212,16 @@
         <v>50</v>
       </c>
       <c r="F73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73">
         <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5183,17 +5233,17 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>42.578000000000003</v>
+        <v>42.540999999999997</v>
       </c>
       <c r="N73">
-        <v>15.048999999999999</v>
+        <v>12.523999999999999</v>
       </c>
       <c r="O73">
         <v>37.652000000000001</v>
       </c>
       <c r="P73">
         <f t="shared" si="2"/>
-        <v>0.7109761374106538</v>
+        <v>0.69575234740193459</v>
       </c>
       <c r="Q73" t="b">
         <f t="shared" si="3"/>
@@ -5202,28 +5252,28 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>50.031999999999996</v>
+        <v>47.531999999999996</v>
       </c>
       <c r="C74">
-        <v>12.528</v>
+        <v>10.028</v>
       </c>
       <c r="D74">
         <v>35.152000000000001</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="F74">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>35</v>
       </c>
       <c r="H74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I74">
         <v>107</v>
@@ -5248,7 +5298,7 @@
       </c>
       <c r="P74">
         <f t="shared" si="2"/>
-        <v>0.70974601571712348</v>
+        <v>0.78679378495462682</v>
       </c>
       <c r="Q74" t="b">
         <f t="shared" si="3"/>
@@ -5257,19 +5307,19 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>50.079000000000001</v>
+        <v>45.067</v>
       </c>
       <c r="C75">
-        <v>10.063000000000001</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="D75">
         <v>35.152000000000001</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -5278,7 +5328,7 @@
         <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I75">
         <v>107</v>
@@ -5303,7 +5353,7 @@
       </c>
       <c r="P75">
         <f t="shared" si="2"/>
-        <v>0.69575234740193459</v>
+        <v>0.92464788235995943</v>
       </c>
       <c r="Q75" t="b">
         <f t="shared" si="3"/>
@@ -5312,19 +5362,19 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B76">
-        <v>47.531999999999996</v>
+        <v>42.567</v>
       </c>
       <c r="C76">
-        <v>10.028</v>
+        <v>10.074999999999999</v>
       </c>
       <c r="D76">
         <v>35.152000000000001</v>
       </c>
       <c r="E76">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="F76">
         <v>10</v>
@@ -5333,16 +5383,16 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I76">
         <v>107</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>1.04963250940644</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L76" t="b">
         <v>1</v>
@@ -5358,7 +5408,7 @@
       </c>
       <c r="P76">
         <f t="shared" si="2"/>
-        <v>0.78679378495462682</v>
+        <v>1.0496325094064451</v>
       </c>
       <c r="Q76" t="b">
         <f t="shared" si="3"/>
@@ -5367,19 +5417,19 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B77">
-        <v>45.067</v>
+        <v>40.036000000000001</v>
       </c>
       <c r="C77">
-        <v>10.074999999999999</v>
+        <v>10.044</v>
       </c>
       <c r="D77">
         <v>35.152000000000001</v>
       </c>
       <c r="E77">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F77">
         <v>10</v>
@@ -5388,32 +5438,32 @@
         <v>35</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I77">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>1.0454525425897001</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L77" t="b">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>42.540999999999997</v>
+        <v>40.003</v>
       </c>
       <c r="N77">
-        <v>12.523999999999999</v>
+        <v>12.521000000000001</v>
       </c>
       <c r="O77">
         <v>37.652000000000001</v>
       </c>
       <c r="P77">
         <f t="shared" si="2"/>
-        <v>0.92464788235995943</v>
+        <v>1.0454525425897088</v>
       </c>
       <c r="Q77" t="b">
         <f t="shared" si="3"/>
@@ -5422,19 +5472,19 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>42.567</v>
+        <v>37.445</v>
       </c>
       <c r="C78">
-        <v>10.074999999999999</v>
+        <v>10.022</v>
       </c>
       <c r="D78">
         <v>35.152000000000001</v>
       </c>
       <c r="E78">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -5443,13 +5493,13 @@
         <v>35</v>
       </c>
       <c r="H78" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I78">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J78">
-        <v>1.04963250940644</v>
+        <v>1.0360663140469</v>
       </c>
       <c r="K78">
         <v>1.042108434</v>
@@ -5458,17 +5508,17 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>42.540999999999997</v>
+        <v>37.566000000000003</v>
       </c>
       <c r="N78">
-        <v>12.523999999999999</v>
+        <v>12.561</v>
       </c>
       <c r="O78">
         <v>37.652000000000001</v>
       </c>
       <c r="P78">
         <f t="shared" si="2"/>
-        <v>1.0496325094064451</v>
+        <v>1.0360663140469033</v>
       </c>
       <c r="Q78" t="b">
         <f t="shared" si="3"/>
@@ -5477,19 +5527,19 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B79">
-        <v>40.036000000000001</v>
+        <v>35.021999999999998</v>
       </c>
       <c r="C79">
-        <v>10.044</v>
+        <v>10.025</v>
       </c>
       <c r="D79">
         <v>35.152000000000001</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -5498,13 +5548,13 @@
         <v>35</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I79">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J79">
-        <v>1.0454525425897001</v>
+        <v>1.0399122565462</v>
       </c>
       <c r="K79">
         <v>1.042108434</v>
@@ -5513,17 +5563,17 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>40.003</v>
+        <v>35.045999999999999</v>
       </c>
       <c r="N79">
-        <v>12.521000000000001</v>
+        <v>12.54</v>
       </c>
       <c r="O79">
         <v>37.652000000000001</v>
       </c>
       <c r="P79">
         <f t="shared" si="2"/>
-        <v>1.0454525425897088</v>
+        <v>1.0399122565462016</v>
       </c>
       <c r="Q79" t="b">
         <f t="shared" si="3"/>
@@ -5532,19 +5582,19 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B80">
-        <v>37.445</v>
+        <v>32.542999999999999</v>
       </c>
       <c r="C80">
-        <v>10.022</v>
+        <v>10.031000000000001</v>
       </c>
       <c r="D80">
         <v>35.152000000000001</v>
       </c>
       <c r="E80">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -5553,13 +5603,13 @@
         <v>35</v>
       </c>
       <c r="H80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I80">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J80">
-        <v>1.0360663140469</v>
+        <v>1.0394936064345699</v>
       </c>
       <c r="K80">
         <v>1.042108434</v>
@@ -5568,17 +5618,17 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>37.566000000000003</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="N80">
-        <v>12.561</v>
+        <v>12.548999999999999</v>
       </c>
       <c r="O80">
         <v>37.652000000000001</v>
       </c>
       <c r="P80">
         <f t="shared" si="2"/>
-        <v>1.0360663140469033</v>
+        <v>1.0394936064345703</v>
       </c>
       <c r="Q80" t="b">
         <f t="shared" si="3"/>
@@ -5587,19 +5637,19 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B81">
-        <v>35.021999999999998</v>
+        <v>30.1</v>
       </c>
       <c r="C81">
-        <v>10.025</v>
+        <v>10.103</v>
       </c>
       <c r="D81">
         <v>35.152000000000001</v>
       </c>
       <c r="E81">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -5608,32 +5658,32 @@
         <v>35</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I81">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J81">
-        <v>1.0399122565462</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
       </c>
       <c r="M81">
-        <v>35.045999999999999</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="N81">
-        <v>12.54</v>
+        <v>12.548999999999999</v>
       </c>
       <c r="O81">
         <v>37.652000000000001</v>
       </c>
       <c r="P81">
         <f t="shared" si="2"/>
-        <v>1.0399122565462016</v>
+        <v>0.92988152498779231</v>
       </c>
       <c r="Q81" t="b">
         <f t="shared" si="3"/>
@@ -5642,19 +5692,19 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B82">
-        <v>32.542999999999999</v>
+        <v>27.568000000000001</v>
       </c>
       <c r="C82">
-        <v>10.031000000000001</v>
+        <v>10.055999999999999</v>
       </c>
       <c r="D82">
         <v>35.152000000000001</v>
       </c>
       <c r="E82">
-        <v>32.5</v>
+        <v>27.5</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -5663,16 +5713,16 @@
         <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I82">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J82">
-        <v>1.0394936064345699</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
@@ -5688,7 +5738,7 @@
       </c>
       <c r="P82">
         <f t="shared" si="2"/>
-        <v>1.0394936064345703</v>
+        <v>0.78725774922696101</v>
       </c>
       <c r="Q82" t="b">
         <f t="shared" si="3"/>
@@ -5697,19 +5747,19 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83">
-        <v>30.1</v>
+        <v>25.053999999999998</v>
       </c>
       <c r="C83">
-        <v>10.103</v>
+        <v>10.071</v>
       </c>
       <c r="D83">
         <v>35.152000000000001</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -5718,10 +5768,10 @@
         <v>35</v>
       </c>
       <c r="H83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I83">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -5733,17 +5783,17 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>32.549999999999997</v>
+        <v>22.56</v>
       </c>
       <c r="N83">
-        <v>12.548999999999999</v>
+        <v>12.567</v>
       </c>
       <c r="O83">
         <v>37.652000000000001</v>
       </c>
       <c r="P83">
         <f t="shared" si="2"/>
-        <v>0.92988152498779231</v>
+        <v>0.92371279615093782</v>
       </c>
       <c r="Q83" t="b">
         <f t="shared" si="3"/>
@@ -5752,19 +5802,19 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>27.568000000000001</v>
+        <v>22.530999999999999</v>
       </c>
       <c r="C84">
-        <v>10.055999999999999</v>
+        <v>10.045</v>
       </c>
       <c r="D84">
         <v>35.152000000000001</v>
       </c>
       <c r="E84">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -5773,32 +5823,32 @@
         <v>35</v>
       </c>
       <c r="H84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I84">
         <v>95</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>1.03889363772411</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>32.549999999999997</v>
+        <v>22.56</v>
       </c>
       <c r="N84">
-        <v>12.548999999999999</v>
+        <v>12.567</v>
       </c>
       <c r="O84">
         <v>37.652000000000001</v>
       </c>
       <c r="P84">
         <f t="shared" si="2"/>
-        <v>0.78725774922696101</v>
+        <v>1.0388936377241151</v>
       </c>
       <c r="Q84" t="b">
         <f t="shared" si="3"/>
@@ -5807,19 +5857,19 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>25.053999999999998</v>
+        <v>20.071999999999999</v>
       </c>
       <c r="C85">
-        <v>10.071</v>
+        <v>10.073</v>
       </c>
       <c r="D85">
         <v>35.152000000000001</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -5828,32 +5878,32 @@
         <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I85">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>1.0460459171911001</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L85" t="b">
         <v>1</v>
       </c>
       <c r="M85">
-        <v>22.56</v>
+        <v>20.04</v>
       </c>
       <c r="N85">
-        <v>12.567</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="O85">
         <v>37.652000000000001</v>
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
-        <v>0.92371279615093782</v>
+        <v>1.0460459171911065</v>
       </c>
       <c r="Q85" t="b">
         <f t="shared" si="3"/>
@@ -5862,19 +5912,19 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B86">
-        <v>22.530999999999999</v>
+        <v>17.553999999999998</v>
       </c>
       <c r="C86">
-        <v>10.045</v>
+        <v>10.068</v>
       </c>
       <c r="D86">
         <v>35.152000000000001</v>
       </c>
       <c r="E86">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -5883,13 +5933,13 @@
         <v>35</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I86">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J86">
-        <v>1.03889363772411</v>
+        <v>1.0517277143228501</v>
       </c>
       <c r="K86">
         <v>1.042108434</v>
@@ -5898,17 +5948,17 @@
         <v>1</v>
       </c>
       <c r="M86">
-        <v>22.56</v>
+        <v>17.521000000000001</v>
       </c>
       <c r="N86">
-        <v>12.567</v>
+        <v>12.503</v>
       </c>
       <c r="O86">
         <v>37.652000000000001</v>
       </c>
       <c r="P86">
         <f t="shared" si="2"/>
-        <v>1.0388936377241151</v>
+        <v>1.0517277143228578</v>
       </c>
       <c r="Q86" t="b">
         <f t="shared" si="3"/>
@@ -5917,19 +5967,19 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B87">
-        <v>20.071999999999999</v>
+        <v>15.079000000000001</v>
       </c>
       <c r="C87">
-        <v>10.073</v>
+        <v>10.066000000000001</v>
       </c>
       <c r="D87">
         <v>35.152000000000001</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -5938,53 +5988,53 @@
         <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I87">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J87">
-        <v>1.0460459171911001</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>1.042108434</v>
       </c>
       <c r="L87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>20.04</v>
+        <v>17.521000000000001</v>
       </c>
       <c r="N87">
-        <v>12.545999999999999</v>
+        <v>12.503</v>
       </c>
       <c r="O87">
         <v>37.652000000000001</v>
       </c>
-      <c r="P87">
-        <f t="shared" si="2"/>
-        <v>1.0460459171911065</v>
-      </c>
-      <c r="Q87" t="b">
+      <c r="P87" s="3">
+        <f>0.9*((O87-D87)^0.51)*((SQRT((M87-B87)^2+(N87-C87)^2)^(-0.35)))</f>
+        <v>0.93101418279599779</v>
+      </c>
+      <c r="Q87" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B88">
-        <v>17.553999999999998</v>
+        <v>12.506</v>
       </c>
       <c r="C88">
-        <v>10.068</v>
+        <v>10.047000000000001</v>
       </c>
       <c r="D88">
         <v>35.152000000000001</v>
       </c>
       <c r="E88">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -5993,13 +6043,13 @@
         <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I88">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J88">
-        <v>1.0517277143228501</v>
+        <v>1.04145282592643</v>
       </c>
       <c r="K88">
         <v>1.042108434</v>
@@ -6008,17 +6058,17 @@
         <v>1</v>
       </c>
       <c r="M88">
-        <v>17.521000000000001</v>
+        <v>12.555999999999999</v>
       </c>
       <c r="N88">
-        <v>12.503</v>
+        <v>12.551</v>
       </c>
       <c r="O88">
         <v>37.652000000000001</v>
       </c>
       <c r="P88">
         <f t="shared" si="2"/>
-        <v>1.0517277143228578</v>
+        <v>1.0414528259264355</v>
       </c>
       <c r="Q88" t="b">
         <f t="shared" si="3"/>
@@ -6027,19 +6077,19 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B89">
-        <v>15.079000000000001</v>
+        <v>10.058999999999999</v>
       </c>
       <c r="C89">
-        <v>10.066000000000001</v>
+        <v>10.086</v>
       </c>
       <c r="D89">
         <v>35.152000000000001</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -6048,68 +6098,68 @@
         <v>35</v>
       </c>
       <c r="H89" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I89">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J89">
         <v>1</v>
       </c>
       <c r="K89">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
-        <v>17.521000000000001</v>
+        <v>12.555999999999999</v>
       </c>
       <c r="N89">
-        <v>12.503</v>
+        <v>12.551</v>
       </c>
       <c r="O89">
         <v>37.652000000000001</v>
       </c>
-      <c r="P89" s="6">
-        <f>0.9*((O89-D89)^0.51)*((SQRT((M89-B89)^2+(N89-C89)^2)^(-0.35)))</f>
-        <v>0.93101418279599779</v>
-      </c>
-      <c r="Q89" s="6" t="b">
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>0.92552709280161127</v>
+      </c>
+      <c r="Q89" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B90">
-        <v>12.506</v>
+        <v>10.09</v>
       </c>
       <c r="C90">
-        <v>10.047000000000001</v>
+        <v>12.577999999999999</v>
       </c>
       <c r="D90">
         <v>35.152000000000001</v>
       </c>
       <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
         <v>12.5</v>
-      </c>
-      <c r="F90">
-        <v>10</v>
       </c>
       <c r="G90">
         <v>35</v>
       </c>
       <c r="H90" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I90">
         <v>99</v>
       </c>
       <c r="J90">
-        <v>1.04145282592643</v>
+        <v>1.04709293224834</v>
       </c>
       <c r="K90">
         <v>1.042108434</v>
@@ -6128,7 +6178,7 @@
       </c>
       <c r="P90">
         <f t="shared" si="2"/>
-        <v>1.0414528259264355</v>
+        <v>1.0470929322483455</v>
       </c>
       <c r="Q90" t="b">
         <f t="shared" si="3"/>
@@ -6137,13 +6187,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B91">
-        <v>10.058999999999999</v>
+        <v>10.061</v>
       </c>
       <c r="C91">
-        <v>10.086</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="D91">
         <v>35.152000000000001</v>
@@ -6152,38 +6202,38 @@
         <v>10</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G91">
         <v>35</v>
       </c>
       <c r="H91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I91">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>1.0458009452847501</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>1.042108434</v>
       </c>
       <c r="L91" t="b">
         <v>1</v>
       </c>
       <c r="M91">
-        <v>12.555999999999999</v>
+        <v>12.534000000000001</v>
       </c>
       <c r="N91">
-        <v>12.551</v>
+        <v>15.157999999999999</v>
       </c>
       <c r="O91">
         <v>37.652000000000001</v>
       </c>
       <c r="P91">
         <f t="shared" si="2"/>
-        <v>0.92552709280161127</v>
+        <v>1.0458009452847596</v>
       </c>
       <c r="Q91" t="b">
         <f t="shared" si="3"/>
@@ -6192,13 +6242,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B92">
-        <v>10.09</v>
+        <v>10.044</v>
       </c>
       <c r="C92">
-        <v>12.577999999999999</v>
+        <v>17.532</v>
       </c>
       <c r="D92">
         <v>35.152000000000001</v>
@@ -6207,19 +6257,19 @@
         <v>10</v>
       </c>
       <c r="F92">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="G92">
         <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I92">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J92">
-        <v>1.04709293224834</v>
+        <v>1.04268690542794</v>
       </c>
       <c r="K92">
         <v>1.042108434</v>
@@ -6228,17 +6278,17 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>12.555999999999999</v>
+        <v>12.54</v>
       </c>
       <c r="N92">
-        <v>12.551</v>
+        <v>17.545999999999999</v>
       </c>
       <c r="O92">
         <v>37.652000000000001</v>
       </c>
       <c r="P92">
         <f t="shared" si="2"/>
-        <v>1.0470929322483455</v>
+        <v>1.0426869054279437</v>
       </c>
       <c r="Q92" t="b">
         <f t="shared" si="3"/>
@@ -6247,129 +6297,105 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B93">
-        <v>10.061</v>
+        <v>12.54</v>
       </c>
       <c r="C93">
-        <v>15.061999999999999</v>
+        <v>17.545999999999999</v>
       </c>
       <c r="D93">
-        <v>35.152000000000001</v>
+        <v>37.652000000000001</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="G93">
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="H93" t="s">
-        <v>88</v>
-      </c>
-      <c r="I93">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J93">
-        <v>1.0458009452847501</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L93" t="b">
         <v>1</v>
       </c>
-      <c r="M93">
-        <v>12.534000000000001</v>
-      </c>
-      <c r="N93">
-        <v>15.157999999999999</v>
-      </c>
-      <c r="O93">
-        <v>37.652000000000001</v>
-      </c>
-      <c r="P93">
+      <c r="P93" t="e">
         <f t="shared" si="2"/>
-        <v>1.0458009452847596</v>
-      </c>
-      <c r="Q93" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q93" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>10.044</v>
+        <v>15.06</v>
       </c>
       <c r="C94">
-        <v>17.532</v>
+        <v>17.567</v>
       </c>
       <c r="D94">
-        <v>35.152000000000001</v>
+        <v>37.652000000000001</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F94">
         <v>17.5</v>
       </c>
       <c r="G94">
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="H94" t="s">
-        <v>89</v>
-      </c>
-      <c r="I94">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J94">
-        <v>1.04268690542794</v>
+        <v>1</v>
       </c>
       <c r="K94">
-        <v>1.042108434</v>
+        <v>1</v>
       </c>
       <c r="L94" t="b">
         <v>1</v>
       </c>
-      <c r="M94">
-        <v>12.54</v>
-      </c>
-      <c r="N94">
-        <v>17.545999999999999</v>
-      </c>
-      <c r="O94">
-        <v>37.652000000000001</v>
-      </c>
-      <c r="P94">
+      <c r="P94" t="e">
         <f t="shared" si="2"/>
-        <v>1.0426869054279437</v>
-      </c>
-      <c r="Q94" t="b">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q94" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>12.54</v>
+        <v>17.507000000000001</v>
       </c>
       <c r="C95">
-        <v>17.545999999999999</v>
+        <v>17.538</v>
       </c>
       <c r="D95">
         <v>37.652000000000001</v>
       </c>
       <c r="E95">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="F95">
         <v>17.5</v>
@@ -6378,7 +6404,7 @@
         <v>37.5</v>
       </c>
       <c r="H95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -6400,19 +6426,19 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B96">
-        <v>15.06</v>
+        <v>20.068999999999999</v>
       </c>
       <c r="C96">
-        <v>17.567</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D96">
         <v>37.652000000000001</v>
       </c>
       <c r="E96">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F96">
         <v>17.5</v>
@@ -6421,7 +6447,7 @@
         <v>37.5</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -6443,19 +6469,19 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B97">
-        <v>17.507000000000001</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="C97">
-        <v>17.538</v>
+        <v>17.552</v>
       </c>
       <c r="D97">
         <v>37.652000000000001</v>
       </c>
       <c r="E97">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="F97">
         <v>17.5</v>
@@ -6464,7 +6490,7 @@
         <v>37.5</v>
       </c>
       <c r="H97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -6486,28 +6512,28 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B98">
-        <v>20.068999999999999</v>
+        <v>22.545999999999999</v>
       </c>
       <c r="C98">
-        <v>17.600000000000001</v>
+        <v>15.04</v>
       </c>
       <c r="D98">
         <v>37.652000000000001</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="F98">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G98">
         <v>37.5</v>
       </c>
       <c r="H98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -6529,13 +6555,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B99">
-        <v>22.533999999999999</v>
+        <v>22.56</v>
       </c>
       <c r="C99">
-        <v>17.552</v>
+        <v>12.567</v>
       </c>
       <c r="D99">
         <v>37.652000000000001</v>
@@ -6544,13 +6570,13 @@
         <v>22.5</v>
       </c>
       <c r="F99">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="G99">
         <v>37.5</v>
       </c>
       <c r="H99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -6572,28 +6598,28 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100">
-        <v>22.545999999999999</v>
+        <v>20.04</v>
       </c>
       <c r="C100">
-        <v>15.04</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="D100">
         <v>37.652000000000001</v>
       </c>
       <c r="E100">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G100">
         <v>37.5</v>
       </c>
       <c r="H100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -6615,19 +6641,19 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B101">
-        <v>22.56</v>
+        <v>17.521000000000001</v>
       </c>
       <c r="C101">
-        <v>12.567</v>
+        <v>12.503</v>
       </c>
       <c r="D101">
         <v>37.652000000000001</v>
       </c>
       <c r="E101">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="F101">
         <v>12.5</v>
@@ -6636,7 +6662,7 @@
         <v>37.5</v>
       </c>
       <c r="H101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -6658,19 +6684,19 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102">
-        <v>20.04</v>
+        <v>15.035</v>
       </c>
       <c r="C102">
-        <v>12.545999999999999</v>
+        <v>12.53</v>
       </c>
       <c r="D102">
         <v>37.652000000000001</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>12.5</v>
@@ -6679,41 +6705,41 @@
         <v>37.5</v>
       </c>
       <c r="H102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="L102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q102" t="e">
+      <c r="Q102" t="b">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103">
-        <v>17.521000000000001</v>
+        <v>12.555999999999999</v>
       </c>
       <c r="C103">
-        <v>12.503</v>
+        <v>12.551</v>
       </c>
       <c r="D103">
         <v>37.652000000000001</v>
       </c>
       <c r="E103">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="F103">
         <v>12.5</v>
@@ -6722,7 +6748,7 @@
         <v>37.5</v>
       </c>
       <c r="H103" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -6744,71 +6770,71 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104">
-        <v>15.035</v>
+        <v>12.534000000000001</v>
       </c>
       <c r="C104">
-        <v>12.53</v>
+        <v>15.157999999999999</v>
       </c>
       <c r="D104">
         <v>37.652000000000001</v>
       </c>
       <c r="E104">
+        <v>12.5</v>
+      </c>
+      <c r="F104">
         <v>15</v>
-      </c>
-      <c r="F104">
-        <v>12.5</v>
       </c>
       <c r="G104">
         <v>37.5</v>
       </c>
       <c r="H104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="L104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q104" t="b">
+      <c r="Q104" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105">
-        <v>12.555999999999999</v>
+        <v>32.540999999999997</v>
       </c>
       <c r="C105">
-        <v>12.551</v>
+        <v>17.524000000000001</v>
       </c>
       <c r="D105">
         <v>37.652000000000001</v>
       </c>
       <c r="E105">
-        <v>12.5</v>
+        <v>32.5</v>
       </c>
       <c r="F105">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="G105">
         <v>37.5</v>
       </c>
       <c r="H105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -6830,28 +6856,28 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>12.534000000000001</v>
+        <v>35.055999999999997</v>
       </c>
       <c r="C106">
-        <v>15.157999999999999</v>
+        <v>17.550999999999998</v>
       </c>
       <c r="D106">
         <v>37.652000000000001</v>
       </c>
       <c r="E106">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="F106">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="G106">
         <v>37.5</v>
       </c>
       <c r="H106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -6873,19 +6899,19 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107">
-        <v>32.540999999999997</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="C107">
-        <v>17.524000000000001</v>
+        <v>17.52</v>
       </c>
       <c r="D107">
         <v>37.652000000000001</v>
       </c>
       <c r="E107">
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="F107">
         <v>17.5</v>
@@ -6894,7 +6920,7 @@
         <v>37.5</v>
       </c>
       <c r="H107" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -6916,19 +6942,19 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B108">
-        <v>35.055999999999997</v>
+        <v>40.045999999999999</v>
       </c>
       <c r="C108">
-        <v>17.550999999999998</v>
+        <v>17.54</v>
       </c>
       <c r="D108">
         <v>37.652000000000001</v>
       </c>
       <c r="E108">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F108">
         <v>17.5</v>
@@ -6936,8 +6962,8 @@
       <c r="G108">
         <v>37.5</v>
       </c>
-      <c r="H108" t="s">
-        <v>103</v>
+      <c r="H108" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -6959,19 +6985,19 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109">
-        <v>37.524999999999999</v>
+        <v>42.581000000000003</v>
       </c>
       <c r="C109">
-        <v>17.52</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="D109">
         <v>37.652000000000001</v>
       </c>
       <c r="E109">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="F109">
         <v>17.5</v>
@@ -6980,7 +7006,7 @@
         <v>37.5</v>
       </c>
       <c r="H109" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -7002,28 +7028,28 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B110">
-        <v>40.045999999999999</v>
+        <v>42.578000000000003</v>
       </c>
       <c r="C110">
-        <v>17.54</v>
+        <v>15.048999999999999</v>
       </c>
       <c r="D110">
         <v>37.652000000000001</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="F110">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G110">
         <v>37.5</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>105</v>
+      <c r="H110" t="s">
+        <v>107</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -7045,56 +7071,56 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B111">
-        <v>42.581000000000003</v>
+        <v>41.423999999999999</v>
       </c>
       <c r="C111">
-        <v>17.588000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="D111">
-        <v>37.652000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="E111">
         <v>42.5</v>
       </c>
       <c r="F111">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="G111">
         <v>37.5</v>
       </c>
       <c r="H111" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="L111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q111" t="e">
+      <c r="Q111" t="b">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112">
-        <v>42.578000000000003</v>
+        <v>42.540999999999997</v>
       </c>
       <c r="C112">
-        <v>15.048999999999999</v>
+        <v>12.523999999999999</v>
       </c>
       <c r="D112">
         <v>37.652000000000001</v>
@@ -7103,13 +7129,13 @@
         <v>42.5</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G112">
         <v>37.5</v>
       </c>
       <c r="H112" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -7131,62 +7157,62 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113">
-        <v>41.423999999999999</v>
+        <v>40.003</v>
       </c>
       <c r="C113">
-        <v>15.1</v>
+        <v>12.521000000000001</v>
       </c>
       <c r="D113">
-        <v>37.5</v>
+        <v>37.652000000000001</v>
       </c>
       <c r="E113">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="F113">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="G113">
         <v>37.5</v>
       </c>
       <c r="H113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="L113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q113" t="b">
+      <c r="Q113" t="e">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B114">
-        <v>42.540999999999997</v>
+        <v>37.566000000000003</v>
       </c>
       <c r="C114">
-        <v>12.523999999999999</v>
+        <v>12.561</v>
       </c>
       <c r="D114">
         <v>37.652000000000001</v>
       </c>
       <c r="E114">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="F114">
         <v>12.5</v>
@@ -7195,7 +7221,7 @@
         <v>37.5</v>
       </c>
       <c r="H114" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -7217,19 +7243,19 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>40.003</v>
+        <v>35.045999999999999</v>
       </c>
       <c r="C115">
-        <v>12.521000000000001</v>
+        <v>12.54</v>
       </c>
       <c r="D115">
         <v>37.652000000000001</v>
       </c>
       <c r="E115">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F115">
         <v>12.5</v>
@@ -7238,7 +7264,7 @@
         <v>37.5</v>
       </c>
       <c r="H115" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -7260,19 +7286,19 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116">
-        <v>37.566000000000003</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="C116">
-        <v>12.561</v>
+        <v>12.548999999999999</v>
       </c>
       <c r="D116">
         <v>37.652000000000001</v>
       </c>
       <c r="E116">
-        <v>37.5</v>
+        <v>32.5</v>
       </c>
       <c r="F116">
         <v>12.5</v>
@@ -7281,7 +7307,7 @@
         <v>37.5</v>
       </c>
       <c r="H116" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -7303,28 +7329,28 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117">
-        <v>35.045999999999999</v>
+        <v>32.554000000000002</v>
       </c>
       <c r="C117">
-        <v>12.54</v>
+        <v>15.073</v>
       </c>
       <c r="D117">
         <v>37.652000000000001</v>
       </c>
       <c r="E117">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="F117">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G117">
         <v>37.5</v>
       </c>
       <c r="H117" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -7346,129 +7372,43 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118">
-        <v>32.549999999999997</v>
+        <v>34.061</v>
       </c>
       <c r="C118">
-        <v>12.548999999999999</v>
+        <v>14.976000000000001</v>
       </c>
       <c r="D118">
-        <v>37.652000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="E118">
         <v>32.5</v>
       </c>
       <c r="F118">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G118">
         <v>37.5</v>
       </c>
       <c r="H118" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q118" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>112</v>
-      </c>
-      <c r="B119">
-        <v>32.554000000000002</v>
-      </c>
-      <c r="C119">
-        <v>15.073</v>
-      </c>
-      <c r="D119">
-        <v>37.652000000000001</v>
-      </c>
-      <c r="E119">
-        <v>32.5</v>
-      </c>
-      <c r="F119">
-        <v>15</v>
-      </c>
-      <c r="G119">
-        <v>37.5</v>
-      </c>
-      <c r="H119" t="s">
-        <v>114</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" t="b">
-        <v>1</v>
-      </c>
-      <c r="P119" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q119" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>112</v>
-      </c>
-      <c r="B120">
-        <v>34.061</v>
-      </c>
-      <c r="C120">
-        <v>14.976000000000001</v>
-      </c>
-      <c r="D120">
-        <v>37.5</v>
-      </c>
-      <c r="E120">
-        <v>32.5</v>
-      </c>
-      <c r="F120">
-        <v>15</v>
-      </c>
-      <c r="G120">
-        <v>37.5</v>
-      </c>
-      <c r="H120" t="s">
-        <v>115</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" t="b">
-        <v>0</v>
-      </c>
-      <c r="P120" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q120" t="b">
+      <c r="Q118" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7484,9 +7424,17 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L120">
+  <conditionalFormatting sqref="L3:L118">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q118">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
